--- a/Factors and Ridership Data/Presence of TNCs/NHTS Ride Hail.xlsx
+++ b/Factors and Ridership Data/Presence of TNCs/NHTS Ride Hail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rianajawad/Documents/GitHub/transit_ridership_decline/Factors and Ridership Data/Presence of TNCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD875B59-6B02-A84E-9C85-0B82A8BDE539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2225C0D-019B-214E-A8EB-32EC8730544D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="13640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1320" windowWidth="25480" windowHeight="14220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Population Data'!$A$2:$CN$232</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6407,7 +6408,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6418,7 +6419,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6429,7 +6430,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8684559" cy="6303309"/>
+    <xdr:ext cx="8665882" cy="6275294"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6462,7 +6463,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676680" cy="6295430"/>
+    <xdr:ext cx="8669694" cy="6285204"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6495,7 +6496,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676680" cy="6295430"/>
+    <xdr:ext cx="8669694" cy="6285204"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6790,7 +6791,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="X57" sqref="A1:XFD1048576"/>
@@ -14843,10 +14844,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CN232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CN2" sqref="CN2"/>
+      <selection activeCell="Q145" sqref="Q145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15398,7 +15400,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -15649,7 +15651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>32</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>49</v>
       </c>
@@ -16163,7 +16165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>66</v>
       </c>
@@ -16420,7 +16422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>93</v>
       </c>
@@ -16677,7 +16679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>110</v>
       </c>
@@ -16928,7 +16930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>126</v>
       </c>
@@ -17179,7 +17181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>143</v>
       </c>
@@ -17430,7 +17432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>160</v>
       </c>
@@ -17687,7 +17689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>177</v>
       </c>
@@ -17941,7 +17943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>194</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>204</v>
       </c>
@@ -18443,7 +18445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>221</v>
       </c>
@@ -18700,7 +18702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>251</v>
       </c>
@@ -18951,7 +18953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>267</v>
       </c>
@@ -19208,7 +19210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>290</v>
       </c>
@@ -19465,7 +19467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>307</v>
       </c>
@@ -19722,7 +19724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>339</v>
       </c>
@@ -19976,7 +19978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>352</v>
       </c>
@@ -20227,7 +20229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>365</v>
       </c>
@@ -20478,7 +20480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>382</v>
       </c>
@@ -20729,7 +20731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>399</v>
       </c>
@@ -20980,7 +20982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>414</v>
       </c>
@@ -21231,7 +21233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>431</v>
       </c>
@@ -21488,7 +21490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>444</v>
       </c>
@@ -21745,7 +21747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>461</v>
       </c>
@@ -22005,7 +22007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>474</v>
       </c>
@@ -22253,7 +22255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>490</v>
       </c>
@@ -22507,7 +22509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>507</v>
       </c>
@@ -22764,7 +22766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>541</v>
       </c>
@@ -23015,7 +23017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>556</v>
       </c>
@@ -23269,7 +23271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>570</v>
       </c>
@@ -23526,7 +23528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>587</v>
       </c>
@@ -23783,7 +23785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>618</v>
       </c>
@@ -24040,7 +24042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>630</v>
       </c>
@@ -24297,7 +24299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>647</v>
       </c>
@@ -24548,7 +24550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>664</v>
       </c>
@@ -24805,7 +24807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>681</v>
       </c>
@@ -25062,7 +25064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>698</v>
       </c>
@@ -25319,7 +25321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>713</v>
       </c>
@@ -25576,7 +25578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>730</v>
       </c>
@@ -25833,7 +25835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>758</v>
       </c>
@@ -26090,7 +26092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>792</v>
       </c>
@@ -26347,7 +26349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>826</v>
       </c>
@@ -26598,7 +26600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>843</v>
       </c>
@@ -26855,7 +26857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>863</v>
       </c>
@@ -27112,7 +27114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>897</v>
       </c>
@@ -27369,7 +27371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>914</v>
       </c>
@@ -27626,7 +27628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>931</v>
       </c>
@@ -27883,7 +27885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>946</v>
       </c>
@@ -28140,7 +28142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>963</v>
       </c>
@@ -28397,7 +28399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>980</v>
       </c>
@@ -28654,7 +28656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>989</v>
       </c>
@@ -28917,7 +28919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1006</v>
       </c>
@@ -29168,7 +29170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1023</v>
       </c>
@@ -29425,7 +29427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1054</v>
       </c>
@@ -29676,7 +29678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1071</v>
       </c>
@@ -29927,7 +29929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1088</v>
       </c>
@@ -30178,7 +30180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1105</v>
       </c>
@@ -30429,7 +30431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1122</v>
       </c>
@@ -30686,7 +30688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1156</v>
       </c>
@@ -30943,7 +30945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1173</v>
       </c>
@@ -31200,7 +31202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1204</v>
       </c>
@@ -31457,7 +31459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1221</v>
       </c>
@@ -31714,7 +31716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1238</v>
       </c>
@@ -31965,7 +31967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1246</v>
       </c>
@@ -32216,7 +32218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1288</v>
       </c>
@@ -32473,7 +32475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1254</v>
       </c>
@@ -32718,7 +32720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1271</v>
       </c>
@@ -32975,7 +32977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1306</v>
       </c>
@@ -33226,7 +33228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1323</v>
       </c>
@@ -33483,7 +33485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1340</v>
       </c>
@@ -33740,7 +33742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1357</v>
       </c>
@@ -33997,7 +33999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1373</v>
       </c>
@@ -34254,7 +34256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1390</v>
       </c>
@@ -34511,7 +34513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1407</v>
       </c>
@@ -34768,7 +34770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1424</v>
       </c>
@@ -35025,7 +35027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1441</v>
       </c>
@@ -35282,7 +35284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1458</v>
       </c>
@@ -35533,7 +35535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1473</v>
       </c>
@@ -35790,7 +35792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1490</v>
       </c>
@@ -36047,7 +36049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1503</v>
       </c>
@@ -36298,7 +36300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1516</v>
       </c>
@@ -36555,7 +36557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1530</v>
       </c>
@@ -36812,7 +36814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1546</v>
       </c>
@@ -37069,7 +37071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1559</v>
       </c>
@@ -37320,7 +37322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1576</v>
       </c>
@@ -37577,7 +37579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1589</v>
       </c>
@@ -37828,7 +37830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1606</v>
       </c>
@@ -38085,7 +38087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1633</v>
       </c>
@@ -38330,7 +38332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1649</v>
       </c>
@@ -38452,7 +38454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1666</v>
       </c>
@@ -38709,7 +38711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1695</v>
       </c>
@@ -38966,7 +38968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1712</v>
       </c>
@@ -39223,7 +39225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1729</v>
       </c>
@@ -39474,7 +39476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1741</v>
       </c>
@@ -39731,7 +39733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1756</v>
       </c>
@@ -39988,7 +39990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1768</v>
       </c>
@@ -40245,7 +40247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1784</v>
       </c>
@@ -40496,7 +40498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1801</v>
       </c>
@@ -40753,7 +40755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1835</v>
       </c>
@@ -41004,7 +41006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1869</v>
       </c>
@@ -41255,7 +41257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1882</v>
       </c>
@@ -41512,7 +41514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1899</v>
       </c>
@@ -41769,7 +41771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1918</v>
       </c>
@@ -42020,7 +42022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1935</v>
       </c>
@@ -42271,7 +42273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1949</v>
       </c>
@@ -42528,7 +42530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1957</v>
       </c>
@@ -42794,7 +42796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1971</v>
       </c>
@@ -43045,7 +43047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1987</v>
       </c>
@@ -43293,7 +43295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1999</v>
       </c>
@@ -43550,7 +43552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2012</v>
       </c>
@@ -43801,7 +43803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2029</v>
       </c>
@@ -44058,7 +44060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2044</v>
       </c>
@@ -44309,7 +44311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2061</v>
       </c>
@@ -44566,7 +44568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2073</v>
       </c>
@@ -44817,7 +44819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2090</v>
       </c>
@@ -45074,7 +45076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2107</v>
       </c>
@@ -45331,7 +45333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2123</v>
       </c>
@@ -45588,7 +45590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2154</v>
       </c>
@@ -45845,7 +45847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2171</v>
       </c>
@@ -46096,7 +46098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2188</v>
       </c>
@@ -46344,7 +46346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2222</v>
       </c>
@@ -46601,7 +46603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2239</v>
       </c>
@@ -46852,7 +46854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2252</v>
       </c>
@@ -47103,7 +47105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2269</v>
       </c>
@@ -47360,7 +47362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2282</v>
       </c>
@@ -47617,7 +47619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2299</v>
       </c>
@@ -47874,7 +47876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2316</v>
       </c>
@@ -48125,7 +48127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2333</v>
       </c>
@@ -48382,7 +48384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>33340</v>
       </c>
@@ -48636,7 +48638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2367</v>
       </c>
@@ -48893,7 +48895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2398</v>
       </c>
@@ -49150,7 +49152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2412</v>
       </c>
@@ -49407,7 +49409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2425</v>
       </c>
@@ -49658,7 +49660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2439</v>
       </c>
@@ -49915,7 +49917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2453</v>
       </c>
@@ -50166,7 +50168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2468</v>
       </c>
@@ -50417,7 +50419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2480</v>
       </c>
@@ -50668,7 +50670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2497</v>
       </c>
@@ -50925,7 +50927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2526</v>
       </c>
@@ -51182,7 +51184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2538</v>
       </c>
@@ -51690,7 +51692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2601</v>
       </c>
@@ -51935,7 +51937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2617</v>
       </c>
@@ -52183,7 +52185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2625</v>
       </c>
@@ -52434,7 +52436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2642</v>
       </c>
@@ -52691,7 +52693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2659</v>
       </c>
@@ -52942,7 +52944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2676</v>
       </c>
@@ -53199,7 +53201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2693</v>
       </c>
@@ -53456,7 +53458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2714</v>
       </c>
@@ -53707,7 +53709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2729</v>
       </c>
@@ -53958,7 +53960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2746</v>
       </c>
@@ -54203,7 +54205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2763</v>
       </c>
@@ -54454,7 +54456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2776</v>
       </c>
@@ -54711,7 +54713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2793</v>
       </c>
@@ -54968,7 +54970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2827</v>
       </c>
@@ -55225,7 +55227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2854</v>
       </c>
@@ -55482,7 +55484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2886</v>
       </c>
@@ -55727,7 +55729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2966</v>
       </c>
@@ -55984,7 +55986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2903</v>
       </c>
@@ -56235,7 +56237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2932</v>
       </c>
@@ -56492,7 +56494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2983</v>
       </c>
@@ -56749,7 +56751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3000</v>
       </c>
@@ -57000,7 +57002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3016</v>
       </c>
@@ -57251,7 +57253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3033</v>
       </c>
@@ -57505,7 +57507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>3050</v>
       </c>
@@ -57756,7 +57758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>3065</v>
       </c>
@@ -58013,7 +58015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3082</v>
       </c>
@@ -58267,7 +58269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>3099</v>
       </c>
@@ -58521,7 +58523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>3116</v>
       </c>
@@ -58778,7 +58780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3132</v>
       </c>
@@ -59032,7 +59034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="175" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>3149</v>
       </c>
@@ -59289,7 +59291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3166</v>
       </c>
@@ -59549,7 +59551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3179</v>
       </c>
@@ -59800,7 +59802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3196</v>
       </c>
@@ -60054,7 +60056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>3228</v>
       </c>
@@ -60305,7 +60307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3294</v>
       </c>
@@ -60562,7 +60564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3311</v>
       </c>
@@ -60813,7 +60815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3324</v>
       </c>
@@ -61061,7 +61063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3341</v>
       </c>
@@ -61318,7 +61320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3375</v>
       </c>
@@ -61563,7 +61565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3392</v>
       </c>
@@ -61820,7 +61822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3409</v>
       </c>
@@ -62077,7 +62079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3443</v>
       </c>
@@ -62334,7 +62336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3477</v>
       </c>
@@ -62591,7 +62593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3511</v>
       </c>
@@ -62752,7 +62754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3528</v>
       </c>
@@ -63006,7 +63008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3545</v>
       </c>
@@ -63257,7 +63259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3558</v>
       </c>
@@ -63508,7 +63510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3575</v>
       </c>
@@ -63765,7 +63767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3592</v>
       </c>
@@ -64016,7 +64018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3606</v>
       </c>
@@ -64273,7 +64275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3636</v>
       </c>
@@ -64524,7 +64526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3651</v>
       </c>
@@ -64775,7 +64777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3665</v>
       </c>
@@ -65026,7 +65028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3682</v>
       </c>
@@ -65277,7 +65279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3699</v>
       </c>
@@ -65531,7 +65533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3716</v>
       </c>
@@ -65782,7 +65784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3733</v>
       </c>
@@ -66030,7 +66032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3245</v>
       </c>
@@ -66281,7 +66283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3262</v>
       </c>
@@ -66541,7 +66543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3750</v>
       </c>
@@ -66798,7 +66800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3767</v>
       </c>
@@ -67049,7 +67051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3801</v>
       </c>
@@ -67294,7 +67296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3818</v>
       </c>
@@ -67548,7 +67550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3834</v>
       </c>
@@ -67805,7 +67807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3851</v>
       </c>
@@ -68062,7 +68064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3885</v>
       </c>
@@ -68313,7 +68315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3902</v>
       </c>
@@ -68570,7 +68572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3915</v>
       </c>
@@ -68827,7 +68829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3932</v>
       </c>
@@ -69084,7 +69086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3953</v>
       </c>
@@ -69341,7 +69343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3969</v>
       </c>
@@ -69592,7 +69594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3986</v>
       </c>
@@ -69849,7 +69851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4008</v>
       </c>
@@ -70097,7 +70099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4021</v>
       </c>
@@ -70354,7 +70356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4038</v>
       </c>
@@ -70611,7 +70613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4067</v>
       </c>
@@ -70862,7 +70864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4084</v>
       </c>
@@ -71119,7 +71121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4096</v>
       </c>
@@ -71376,7 +71378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4113</v>
       </c>
@@ -71627,7 +71629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4126</v>
       </c>
@@ -71875,7 +71877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4140</v>
       </c>
@@ -72132,7 +72134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4157</v>
       </c>
@@ -72386,7 +72388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4171</v>
       </c>
@@ -72637,7 +72639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4185</v>
       </c>
@@ -72894,7 +72896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4197</v>
       </c>
@@ -73142,7 +73144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4210</v>
       </c>
@@ -73393,7 +73395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4225</v>
       </c>
@@ -73642,6 +73644,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:CN232" xr:uid="{BFF262AE-B4FF-7B47-A2E2-ABFA34E09F48}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="New York-Northern New Jersey-Long Island, NY-NJ-PA Metro Area"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN231">
     <sortCondition ref="C2:C231"/>
   </sortState>
@@ -73653,8 +73662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM115"/>
   <sheetViews>
-    <sheetView topLeftCell="L23" workbookViewId="0">
-      <selection activeCell="AG56" sqref="AG56"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -80361,7 +80370,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="7">
-        <f t="shared" ref="AF56" si="15">VLOOKUP($Y56,$A$62:$R$114,18,FALSE)</f>
+        <f>VLOOKUP($Y56,$A$62:$R$114,18,FALSE)</f>
         <v>825</v>
       </c>
       <c r="AG56" s="7">
@@ -84435,14 +84444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="12.5" style="7" customWidth="1"/>
     <col min="10" max="11" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
@@ -84463,7 +84472,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>754</v>
       </c>
@@ -85640,11 +85649,11 @@
         <v>1850000000</v>
       </c>
       <c r="V14" s="27">
-        <f t="shared" ref="V14:W14" si="12">SUM(V3:V13)</f>
+        <f>SUM(V3:V13)</f>
         <v>9449000000</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="12"/>
+        <f>SUM(W3:W13)</f>
         <v>371143000000</v>
       </c>
       <c r="Y14" s="1">
@@ -85946,11 +85955,11 @@
         <v>21.455767950161203</v>
       </c>
       <c r="Y18" s="1">
-        <f>U18/W18</f>
+        <f t="shared" ref="Y18:Y23" si="12">U18/W18</f>
         <v>1.8591957699032026E-2</v>
       </c>
       <c r="Z18" s="1">
-        <f>V18/W18</f>
+        <f t="shared" ref="Z18:Z23" si="13">V18/W18</f>
         <v>0.12336360922775148</v>
       </c>
       <c r="AA18" s="6">
@@ -85958,7 +85967,7 @@
         <v>0.15070860698237126</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" ref="AB18:AB23" si="13">U18/U$14</f>
+        <f t="shared" ref="AB18:AB23" si="14">U18/U$14</f>
         <v>0.23567567567567568</v>
       </c>
     </row>
@@ -86021,7 +86030,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" ref="T19:T22" si="14">SUMIF($C$3:$C$55,$S19,$G$3:$G$55)</f>
+        <f>SUMIF($C$3:$C$55,$S19,$G$3:$G$55)</f>
         <v>99121111</v>
       </c>
       <c r="U19" s="7">
@@ -86029,11 +86038,11 @@
         <v>815000000</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" ref="V19:V22" si="15">SUMIF($C$3:$C$55,$S19,$K$3:$K$55)</f>
+        <f>SUMIF($C$3:$C$55,$S19,$K$3:$K$55)</f>
         <v>4235000000</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" ref="W19:W22" si="16">SUMIF($C$3:$C$55,$S19,$L$3:$L$55)</f>
+        <f>SUMIF($C$3:$C$55,$S19,$L$3:$L$55)</f>
         <v>112719000000</v>
       </c>
       <c r="X19" s="26">
@@ -86041,11 +86050,11 @@
         <v>8.2222645789351567</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:Y23" si="17">U19/W19</f>
+        <f t="shared" si="12"/>
         <v>7.2303693254908222E-3</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" ref="Z19:Z23" si="18">V19/W19</f>
+        <f t="shared" si="13"/>
         <v>3.7571305636139425E-2</v>
       </c>
       <c r="AA19" s="6">
@@ -86053,7 +86062,7 @@
         <v>0.19244391971664698</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.44054054054054054</v>
       </c>
     </row>
@@ -86116,7 +86125,7 @@
         <v>2</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="14"/>
+        <f>SUMIF($C$3:$C$55,$S20,$G$3:$G$55)</f>
         <v>61445064</v>
       </c>
       <c r="U20" s="7">
@@ -86124,11 +86133,11 @@
         <v>273000000</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" si="15"/>
+        <f>SUMIF($C$3:$C$55,$S20,$K$3:$K$55)</f>
         <v>886000000</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="16"/>
+        <f>SUMIF($C$3:$C$55,$S20,$L$3:$L$55)</f>
         <v>70641000000</v>
       </c>
       <c r="X20" s="26">
@@ -86136,11 +86145,11 @@
         <v>4.4429931751718899</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>3.8646112031256634E-3</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1.2542291303916989E-2</v>
       </c>
       <c r="AA20" s="6">
@@ -86148,7 +86157,7 @@
         <v>0.30812641083521441</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14756756756756756</v>
       </c>
     </row>
@@ -86211,7 +86220,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="14"/>
+        <f>SUMIF($C$3:$C$55,$S21,$G$3:$G$55)</f>
         <v>1077948</v>
       </c>
       <c r="U21" s="7">
@@ -86219,11 +86228,11 @@
         <v>1000000</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" si="15"/>
+        <f>SUMIF($C$3:$C$55,$S21,$K$3:$K$55)</f>
         <v>19000000</v>
       </c>
       <c r="W21" s="7">
-        <f t="shared" si="16"/>
+        <f>SUMIF($C$3:$C$55,$S21,$L$3:$L$55)</f>
         <v>1178000000</v>
       </c>
       <c r="X21" s="26">
@@ -86231,11 +86240,11 @@
         <v>0.92768853414079344</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>8.4889643463497452E-4</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AA21" s="6">
@@ -86243,7 +86252,7 @@
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.4054054054054055E-4</v>
       </c>
     </row>
@@ -86306,7 +86315,7 @@
         <v>200</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="14"/>
+        <f>SUMIF($C$3:$C$55,$S22,$G$3:$G$55)</f>
         <v>143035001</v>
       </c>
       <c r="U22" s="7">
@@ -86314,20 +86323,20 @@
         <v>325000000</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="15"/>
+        <f>SUMIF($C$3:$C$55,$S22,$K$3:$K$55)</f>
         <v>1416000000</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="16"/>
+        <f>SUMIF($C$3:$C$55,$S22,$L$3:$L$55)</f>
         <v>163154000000</v>
       </c>
       <c r="X22" s="26"/>
       <c r="Y22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1.9919830344337251E-3</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>8.6789168515635541E-3</v>
       </c>
       <c r="AA22" s="6">
@@ -86335,7 +86344,7 @@
         <v>0.22951977401129942</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17567567567567569</v>
       </c>
     </row>
@@ -86402,19 +86411,19 @@
         <v>1850000000</v>
       </c>
       <c r="V23" s="27">
-        <f t="shared" ref="V23:W23" si="19">SUM(V18:V22)</f>
+        <f>SUM(V18:V22)</f>
         <v>9449000000</v>
       </c>
       <c r="W23" s="27">
-        <f t="shared" si="19"/>
+        <f>SUM(W18:W22)</f>
         <v>371143000000</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4.9846016225551879E-3</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>2.545918958460755E-2</v>
       </c>
       <c r="AA23" s="6">
@@ -86422,7 +86431,7 @@
         <v>0.19578791406498045</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -87120,7 +87129,7 @@
         <v>1.2017479970866714E-2</v>
       </c>
       <c r="Q35" s="21">
-        <f t="shared" ref="Q35:Q55" si="20">J35/J$56</f>
+        <f t="shared" ref="Q35:Q55" si="15">J35/J$56</f>
         <v>4.3243243243243244E-3</v>
       </c>
     </row>
@@ -87176,7 +87185,7 @@
         <v>2.2476050110537951E-2</v>
       </c>
       <c r="Q36" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.7027027027027029E-3</v>
       </c>
     </row>
@@ -87228,7 +87237,7 @@
         <v>2.881844380403458E-3</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -87276,7 +87285,7 @@
         <v>9.0403337969401955E-3</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -87332,7 +87341,7 @@
         <v>3.2310177705977385E-3</v>
       </c>
       <c r="Q39" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.3783783783783784E-2</v>
       </c>
     </row>
@@ -87388,7 +87397,7 @@
         <v>2.3937761819269897E-2</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1.2972972972972972E-2</v>
       </c>
     </row>
@@ -87444,7 +87453,7 @@
         <v>5.859375E-3</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1.0270270270270269E-2</v>
       </c>
     </row>
@@ -87500,7 +87509,7 @@
         <v>4.4078754040552453E-3</v>
       </c>
       <c r="Q42" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.1621621621621623E-2</v>
       </c>
     </row>
@@ -87556,7 +87565,7 @@
         <v>6.7204301075268818E-3</v>
       </c>
       <c r="Q43" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>8.1081081081081086E-3</v>
       </c>
     </row>
@@ -87612,7 +87621,7 @@
         <v>1.0666666666666666E-2</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>4.3243243243243244E-3</v>
       </c>
     </row>
@@ -87668,7 +87677,7 @@
         <v>1.3373453694416584E-2</v>
       </c>
       <c r="Q45" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>6.4864864864864862E-3</v>
       </c>
     </row>
@@ -87724,7 +87733,7 @@
         <v>1.0270270270270269E-2</v>
       </c>
       <c r="Q46" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3.7837837837837837E-3</v>
       </c>
     </row>
@@ -87780,7 +87789,7 @@
         <v>1.0465116279069767E-2</v>
       </c>
       <c r="Q47" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>6.4864864864864862E-3</v>
       </c>
     </row>
@@ -87836,7 +87845,7 @@
         <v>4.475703324808184E-3</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.1621621621621622E-3</v>
       </c>
     </row>
@@ -87892,7 +87901,7 @@
         <v>1.0546500479386385E-2</v>
       </c>
       <c r="Q49" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.7027027027027029E-3</v>
       </c>
     </row>
@@ -87948,7 +87957,7 @@
         <v>5.4377379010331697E-4</v>
       </c>
       <c r="Q50" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1.0810810810810811E-3</v>
       </c>
     </row>
@@ -88004,7 +88013,7 @@
         <v>1.2987012987012987E-3</v>
       </c>
       <c r="Q51" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1.0810810810810811E-3</v>
       </c>
     </row>
@@ -88052,7 +88061,7 @@
         <v>1.3315579227696404E-2</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -88100,7 +88109,7 @@
         <v>3.0853616729516627E-3</v>
       </c>
       <c r="Q53" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -88156,7 +88165,7 @@
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>5.4054054054054055E-4</v>
       </c>
     </row>
@@ -88210,7 +88219,7 @@
         <v>8.6789168515635541E-3</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.17567567567567569</v>
       </c>
     </row>
@@ -88226,11 +88235,11 @@
         <v>1850000000</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" ref="K56:L56" si="21">SUM(K4:K54)</f>
+        <f>SUM(K4:K54)</f>
         <v>5140000000</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="21"/>
+        <f>SUM(L4:L54)</f>
         <v>184538000000</v>
       </c>
       <c r="N56" s="6">
@@ -88245,7 +88254,7 @@
         <v>2.7853341859129285E-2</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" ref="Q56" si="22">J56/J$56</f>
+        <f>J56/J$56</f>
         <v>1</v>
       </c>
     </row>
@@ -88267,8 +88276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
